--- a/notes/TestScore.xlsx
+++ b/notes/TestScore.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Ztel Hiring</t>
   </si>
@@ -60,18 +60,22 @@
   </si>
   <si>
     <t>Target Acceptance Score is</t>
+  </si>
+  <si>
+    <t>X~N(Mu,Sigma^2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,6 +92,14 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -121,11 +133,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -463,19 +476,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="250" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="250" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
